--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_22_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95536.35076892201</v>
+        <v>17273957.55603531</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95536.35076892201</v>
+        <v>17273957.55603531</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7916.503850359923</v>
+        <v>901439.6529149597</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7916.503850359923</v>
+        <v>901439.6529149597</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1265853016.912655</v>
+        <v>51695974.27519103</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10688.78943696806</v>
+        <v>1217831.846671836</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20188.8018074864</v>
+        <v>2253705.940084959</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29688.81417800474</v>
+        <v>3289580.033498082</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39443.95684181411</v>
+        <v>4340417.629979753</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49123.5278566527</v>
+        <v>5377654.711670521</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58290.58834996428</v>
+        <v>6393161.347248541</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67662.65305188668</v>
+        <v>7430398.428939303</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>77034.71775380906</v>
+        <v>8467635.510630066</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86279.3923863981</v>
+        <v>9435176.646299494</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>95253.07591229148</v>
+        <v>10465765.58617228</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>103390.557193319</v>
+        <v>11360447.66806014</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>112198.8300175808</v>
+        <v>12390584.86400897</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>121025.4176126179</v>
+        <v>13424366.6993421</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>130446.003986649</v>
+        <v>14405062.95336117</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140459.0099638774</v>
+        <v>15311131.46305049</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27055,10 +27055,10 @@
         <v>40</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>370</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>277</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>69</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
